--- a/MIDI/Result/Result.xlsx
+++ b/MIDI/Result/Result.xlsx
@@ -1,13 +1,13 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+<workbook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <workbookPr/>
   <workbookProtection/>
   <bookViews>
     <workbookView visibility="visible" minimized="0" showHorizontalScroll="1" showVerticalScroll="1" showSheetTabs="1" tabRatio="600" firstSheet="0" activeTab="0" autoFilterDateGrouping="1"/>
   </bookViews>
   <sheets>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Sheet" sheetId="1" state="visible" r:id="rId1"/>
+    <sheet name="Sheet" sheetId="1" state="visible" r:id="rId1"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -125,13 +125,13 @@
 </file>
 
 <file path=xl/charts/chart1.xml><?xml version="1.0" encoding="utf-8"?>
-<chartSpace xmlns="http://schemas.openxmlformats.org/drawingml/2006/chart">
+<chartSpace xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns="http://schemas.openxmlformats.org/drawingml/2006/chart">
   <chart>
     <title>
       <tx>
         <rich>
-          <a:bodyPr xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main"/>
-          <a:p xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+          <a:bodyPr/>
+          <a:p>
             <a:pPr>
               <a:defRPr/>
             </a:pPr>
@@ -163,18 +163,18 @@
             </strRef>
           </tx>
           <spPr>
-            <a:ln xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+            <a:ln>
               <a:prstDash val="solid"/>
             </a:ln>
           </spPr>
           <cat>
             <numRef>
-              <f>'Sheet'!$B$2:$B$4</f>
+              <f>'Sheet'!$A$2:$A$5</f>
             </numRef>
           </cat>
           <val>
             <numRef>
-              <f>'Sheet'!$B$3:$B$4</f>
+              <f>'Sheet'!$B$3:$B$5</f>
             </numRef>
           </val>
         </ser>
@@ -187,18 +187,18 @@
             </strRef>
           </tx>
           <spPr>
-            <a:ln xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+            <a:ln>
               <a:prstDash val="solid"/>
             </a:ln>
           </spPr>
           <cat>
             <numRef>
-              <f>'Sheet'!$B$2:$B$4</f>
+              <f>'Sheet'!$A$2:$A$5</f>
             </numRef>
           </cat>
           <val>
             <numRef>
-              <f>'Sheet'!$C$3:$C$4</f>
+              <f>'Sheet'!$C$3:$C$5</f>
             </numRef>
           </val>
         </ser>
@@ -211,18 +211,18 @@
             </strRef>
           </tx>
           <spPr>
-            <a:ln xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+            <a:ln>
               <a:prstDash val="solid"/>
             </a:ln>
           </spPr>
           <cat>
             <numRef>
-              <f>'Sheet'!$B$2:$B$4</f>
+              <f>'Sheet'!$A$2:$A$5</f>
             </numRef>
           </cat>
           <val>
             <numRef>
-              <f>'Sheet'!$D$3:$D$4</f>
+              <f>'Sheet'!$D$3:$D$5</f>
             </numRef>
           </val>
         </ser>
@@ -235,18 +235,18 @@
             </strRef>
           </tx>
           <spPr>
-            <a:ln xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+            <a:ln>
               <a:prstDash val="solid"/>
             </a:ln>
           </spPr>
           <cat>
             <numRef>
-              <f>'Sheet'!$B$2:$B$4</f>
+              <f>'Sheet'!$A$2:$A$5</f>
             </numRef>
           </cat>
           <val>
             <numRef>
-              <f>'Sheet'!$E$3:$E$4</f>
+              <f>'Sheet'!$E$3:$E$5</f>
             </numRef>
           </val>
         </ser>
@@ -259,18 +259,18 @@
             </strRef>
           </tx>
           <spPr>
-            <a:ln xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+            <a:ln>
               <a:prstDash val="solid"/>
             </a:ln>
           </spPr>
           <cat>
             <numRef>
-              <f>'Sheet'!$B$2:$B$4</f>
+              <f>'Sheet'!$A$2:$A$5</f>
             </numRef>
           </cat>
           <val>
             <numRef>
-              <f>'Sheet'!$F$3:$F$4</f>
+              <f>'Sheet'!$F$3:$F$5</f>
             </numRef>
           </val>
         </ser>
@@ -289,8 +289,8 @@
         <title>
           <tx>
             <rich>
-              <a:bodyPr xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main"/>
-              <a:p xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+              <a:bodyPr/>
+              <a:p>
                 <a:pPr>
                   <a:defRPr/>
                 </a:pPr>
@@ -316,13 +316,13 @@
         <title>
           <tx>
             <rich>
-              <a:bodyPr xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main"/>
-              <a:p xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+              <a:bodyPr/>
+              <a:p>
                 <a:pPr>
                   <a:defRPr/>
                 </a:pPr>
                 <a:r>
-                  <a:t/>
+                  <a:t>Performance Metrics</a:t>
                 </a:r>
               </a:p>
             </rich>
@@ -353,10 +353,10 @@
 </file>
 
 <file path=xl/drawings/drawing1.xml><?xml version="1.0" encoding="utf-8"?>
-<wsDr xmlns="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing">
+<wsDr xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing">
   <oneCellAnchor>
     <from>
-      <col>4</col>
+      <col>8</col>
       <colOff>0</colOff>
       <row>4</row>
       <rowOff>0</rowOff>
@@ -368,9 +368,9 @@
         <cNvGraphicFramePr/>
       </nvGraphicFramePr>
       <xfrm/>
-      <a:graphic xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+      <a:graphic>
         <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
-          <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1"/>
+          <c:chart r:id="rId1"/>
         </a:graphicData>
       </a:graphic>
     </graphicFrame>
@@ -716,22 +716,22 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>93.18181818181819</v>
+        <v>0</v>
       </c>
       <c r="C2" t="n">
-        <v>89.1304347826087</v>
+        <v>0</v>
       </c>
       <c r="D2" t="n">
-        <v>91.11111111111113</v>
+        <v>0</v>
       </c>
       <c r="E2" t="n">
-        <v>89.6103896103896</v>
+        <v>0</v>
       </c>
       <c r="F2" t="n">
-        <v>89.1304347826087</v>
+        <v>0</v>
       </c>
       <c r="G2" t="n">
-        <v>90.3225806451613</v>
+        <v>0</v>
       </c>
     </row>
     <row r="3">
@@ -741,22 +741,22 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>96.22641509433963</v>
+        <v>0</v>
       </c>
       <c r="C3" t="n">
-        <v>94.44444444444444</v>
+        <v>0</v>
       </c>
       <c r="D3" t="n">
-        <v>95.32710280373831</v>
+        <v>0</v>
       </c>
       <c r="E3" t="n">
-        <v>93.5064935064935</v>
+        <v>0</v>
       </c>
       <c r="F3" t="n">
-        <v>94.44444444444444</v>
+        <v>0</v>
       </c>
       <c r="G3" t="n">
-        <v>91.30434782608695</v>
+        <v>0</v>
       </c>
     </row>
     <row r="4">
@@ -766,22 +766,22 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>97.95918367346938</v>
+        <v>0</v>
       </c>
       <c r="C4" t="n">
-        <v>94.11764705882354</v>
+        <v>0</v>
       </c>
       <c r="D4" t="n">
-        <v>96</v>
+        <v>0</v>
       </c>
       <c r="E4" t="n">
-        <v>94.8051948051948</v>
+        <v>0</v>
       </c>
       <c r="F4" t="n">
-        <v>94.11764705882354</v>
+        <v>0</v>
       </c>
       <c r="G4" t="n">
-        <v>96.15384615384616</v>
+        <v>0</v>
       </c>
     </row>
     <row r="5">
@@ -791,22 +791,22 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>98.24561403508773</v>
+        <v>0</v>
       </c>
       <c r="C5" t="n">
-        <v>98.24561403508773</v>
+        <v>0</v>
       </c>
       <c r="D5" t="n">
-        <v>98.24561403508773</v>
+        <v>0</v>
       </c>
       <c r="E5" t="n">
-        <v>97.40259740259741</v>
+        <v>0</v>
       </c>
       <c r="F5" t="n">
-        <v>98.24561403508773</v>
+        <v>0</v>
       </c>
       <c r="G5" t="n">
-        <v>95</v>
+        <v>0</v>
       </c>
     </row>
   </sheetData>
